--- a/hw1/results q3.xlsx
+++ b/hw1/results q3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shrey\Documents\GitHub\APFE\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98BE187-6815-4A1C-81DE-2F238AB0FCFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1EDE6-310B-4D61-BB00-0E5C6617BBDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C51D5992-CD11-4772-B21F-D10246ABACD5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1" xr2:uid="{C51D5992-CD11-4772-B21F-D10246ABACD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ranks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -387,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF65F7-D9AE-4C34-B058-B33521651F2B}">
   <dimension ref="A1:A502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+    <sheetView topLeftCell="A450" workbookViewId="0">
       <selection activeCell="A473" sqref="A473"/>
     </sheetView>
   </sheetViews>
@@ -2906,4 +2907,2529 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A096D1F5-54E8-479E-8201-B8FE897D3F33}">
+  <dimension ref="A1:A502"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A502"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>